--- a/individual_case_outputs/avey/491.xlsx
+++ b/individual_case_outputs/avey/491.xlsx
@@ -691,7 +691,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>ruptured abdominal aortic aneurysm</t>
+          <t>aortic dissection</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -720,7 +720,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>ruptured abdominal aortic aneurysm</t>
+          <t>aortic dissection</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
@@ -795,7 +795,7 @@
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
-          <t>ruptured abdominal aortic aneurysm</t>
+          <t>coarctation of aorta</t>
         </is>
       </c>
       <c r="K4" t="inlineStr"/>
